--- a/src/main/resources/classlist.xlsx
+++ b/src/main/resources/classlist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Student Name</t>
   </si>
@@ -472,12 +472,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zhang, Yin </t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Username</t>
   </si>
   <si>
     <t>Tesla, Nikola</t>
@@ -889,1683 +883,1225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>260721680</v>
       </c>
-      <c r="D2" s="1">
-        <v>260721680</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>260741500</v>
       </c>
-      <c r="D3" s="1">
-        <v>260741500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>260740414</v>
       </c>
-      <c r="D4" s="1">
-        <v>260740414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>260743549</v>
       </c>
-      <c r="D5" s="1">
-        <v>260743549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>260747785</v>
       </c>
-      <c r="D6" s="1">
-        <v>260747785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>260742869</v>
       </c>
-      <c r="D7" s="1">
-        <v>260742869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>260733580</v>
       </c>
-      <c r="D8" s="1">
-        <v>260733580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>260746135</v>
       </c>
-      <c r="D9" s="1">
-        <v>260746135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>260744614</v>
       </c>
-      <c r="D10" s="1">
-        <v>260744614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>260726746</v>
       </c>
-      <c r="D11" s="1">
-        <v>260726746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>260730549</v>
       </c>
-      <c r="D12" s="1">
-        <v>260730549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>260719132</v>
       </c>
-      <c r="D13" s="1">
-        <v>260719132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>260706959</v>
       </c>
-      <c r="D14" s="1">
-        <v>260706959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>260664905</v>
       </c>
-      <c r="D15" s="1">
-        <v>260664905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>260747124</v>
       </c>
-      <c r="D16" s="1">
-        <v>260747124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>260710129</v>
       </c>
-      <c r="D17" s="1">
-        <v>260710129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>260706395</v>
       </c>
-      <c r="D18" s="1">
-        <v>260706395</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>260739553</v>
       </c>
-      <c r="D19" s="1">
-        <v>260739553</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>260618099</v>
       </c>
-      <c r="D20" s="1">
-        <v>260618099</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>260744412</v>
       </c>
-      <c r="D21" s="1">
-        <v>260744412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>260722701</v>
       </c>
-      <c r="D22" s="1">
-        <v>260722701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>260743751</v>
       </c>
-      <c r="D23" s="1">
-        <v>260743751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>260430627</v>
       </c>
-      <c r="D24" s="1">
-        <v>260430627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>260726765</v>
       </c>
-      <c r="D25" s="1">
-        <v>260726765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>260745736</v>
       </c>
-      <c r="D26" s="1">
-        <v>260745736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>260736792</v>
       </c>
-      <c r="D27" s="1">
-        <v>260736792</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>260742781</v>
       </c>
-      <c r="D28" s="1">
-        <v>260742781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>260675996</v>
       </c>
-      <c r="D29" s="1">
-        <v>260675996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>260747822</v>
       </c>
-      <c r="D30" s="1">
-        <v>260747822</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>260742659</v>
       </c>
-      <c r="D31" s="1">
-        <v>260742659</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>260746099</v>
       </c>
-      <c r="D32" s="1">
-        <v>260746099</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>260732734</v>
       </c>
-      <c r="D33" s="1">
-        <v>260732734</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>260744431</v>
       </c>
-      <c r="D34" s="1">
-        <v>260744431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>260727117</v>
       </c>
-      <c r="D35" s="1">
-        <v>260727117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>260738518</v>
       </c>
-      <c r="D36" s="1">
-        <v>260738518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>260741964</v>
       </c>
-      <c r="D37" s="1">
-        <v>260741964</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>260733160</v>
       </c>
-      <c r="D38" s="1">
-        <v>260733160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>260746909</v>
       </c>
-      <c r="D39" s="1">
-        <v>260746909</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>260744646</v>
       </c>
-      <c r="D40" s="1">
-        <v>260744646</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>260719196</v>
       </c>
-      <c r="D41" s="1">
-        <v>260719196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>260726386</v>
       </c>
-      <c r="D42" s="1">
-        <v>260726386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>260707540</v>
       </c>
-      <c r="D43" s="1">
-        <v>260707540</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>260660496</v>
       </c>
-      <c r="D44" s="1">
-        <v>260660496</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>260726027</v>
       </c>
-      <c r="D45" s="1">
-        <v>260726027</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>260677071</v>
       </c>
-      <c r="D46" s="1">
-        <v>260677071</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>260742552</v>
       </c>
-      <c r="D47" s="1">
-        <v>260742552</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>260737896</v>
       </c>
-      <c r="D48" s="1">
-        <v>260737896</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>260744805</v>
       </c>
-      <c r="D49" s="1">
-        <v>260744805</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>260720757</v>
       </c>
-      <c r="D50" s="1">
-        <v>260720757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>260712903</v>
       </c>
-      <c r="D51" s="1">
-        <v>260712903</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>260688821</v>
       </c>
-      <c r="D52" s="1">
-        <v>260688821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>260744058</v>
       </c>
-      <c r="D53" s="1">
-        <v>260744058</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>260293648</v>
       </c>
-      <c r="D54" s="1">
-        <v>260293648</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>260721075</v>
       </c>
-      <c r="D55" s="1">
-        <v>260721075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>260743776</v>
       </c>
-      <c r="D56" s="1">
-        <v>260743776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>260738985</v>
       </c>
-      <c r="D57" s="1">
-        <v>260738985</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>260739893</v>
       </c>
-      <c r="D58" s="1">
-        <v>260739893</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>260725697</v>
       </c>
-      <c r="D59" s="1">
-        <v>260725697</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>260680811</v>
       </c>
-      <c r="D60" s="1">
-        <v>260680811</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>260743592</v>
       </c>
-      <c r="D61" s="1">
-        <v>260743592</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>260743073</v>
       </c>
-      <c r="D62" s="1">
-        <v>260743073</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="1">
         <v>260746699</v>
       </c>
-      <c r="D63" s="1">
-        <v>260746699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>260682723</v>
       </c>
-      <c r="D64" s="1">
-        <v>260682723</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>260745290</v>
       </c>
-      <c r="D65" s="1">
-        <v>260745290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>260738764</v>
       </c>
-      <c r="D66" s="1">
-        <v>260738764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>260742799</v>
       </c>
-      <c r="D67" s="1">
-        <v>260742799</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>260707358</v>
       </c>
-      <c r="D68" s="1">
-        <v>260707358</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>260732284</v>
       </c>
-      <c r="D69" s="1">
-        <v>260732284</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>260716119</v>
       </c>
-      <c r="D70" s="1">
-        <v>260716119</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>260740917</v>
       </c>
-      <c r="D71" s="1">
-        <v>260740917</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>260744470</v>
       </c>
-      <c r="D72" s="1">
-        <v>260744470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>260706611</v>
       </c>
-      <c r="D73" s="1">
-        <v>260706611</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>260715513</v>
       </c>
-      <c r="D74" s="1">
-        <v>260715513</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>260746466</v>
       </c>
-      <c r="D75" s="1">
-        <v>260746466</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>260684099</v>
       </c>
-      <c r="D76" s="1">
-        <v>260684099</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>260745803</v>
       </c>
-      <c r="D77" s="1">
-        <v>260745803</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>260746239</v>
       </c>
-      <c r="D78" s="1">
-        <v>260746239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>260736117</v>
       </c>
-      <c r="D79" s="1">
-        <v>260736117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>260746475</v>
       </c>
-      <c r="D80" s="1">
-        <v>260746475</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>260740925</v>
       </c>
-      <c r="D81" s="1">
-        <v>260740925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>260729851</v>
       </c>
-      <c r="D82" s="1">
-        <v>260729851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>260745524</v>
       </c>
-      <c r="D83" s="1">
-        <v>260745524</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>260738036</v>
       </c>
-      <c r="D84" s="1">
-        <v>260738036</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>260740714</v>
       </c>
-      <c r="D85" s="1">
-        <v>260740714</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>260744492</v>
       </c>
-      <c r="D86" s="1">
-        <v>260744492</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>260741649</v>
       </c>
-      <c r="D87" s="1">
-        <v>260741649</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>260743926</v>
       </c>
-      <c r="D88" s="1">
-        <v>260743926</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>260742811</v>
       </c>
-      <c r="D89" s="1">
-        <v>260742811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>260678101</v>
       </c>
-      <c r="D90" s="1">
-        <v>260678101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>260712192</v>
       </c>
-      <c r="D91" s="1">
-        <v>260712192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>260745308</v>
       </c>
-      <c r="D92" s="1">
-        <v>260745308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>260681819</v>
       </c>
-      <c r="D93" s="1">
-        <v>260681819</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>260745824</v>
       </c>
-      <c r="D94" s="1">
-        <v>260745824</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>260710646</v>
       </c>
-      <c r="D95" s="1">
-        <v>260710646</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B96" s="1">
         <v>260705453</v>
       </c>
-      <c r="D96" s="1">
-        <v>260705453</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>260744278</v>
       </c>
-      <c r="D97" s="1">
-        <v>260744278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>260746829</v>
       </c>
-      <c r="D98" s="1">
-        <v>260746829</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>260747607</v>
       </c>
-      <c r="D99" s="1">
-        <v>260747607</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>260742943</v>
       </c>
-      <c r="D100" s="1">
-        <v>260742943</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>260741673</v>
       </c>
-      <c r="D101" s="1">
-        <v>260741673</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>260744106</v>
       </c>
-      <c r="D102" s="1">
-        <v>260744106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>260739616</v>
       </c>
-      <c r="D103" s="1">
-        <v>260739616</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>260712618</v>
       </c>
-      <c r="D104" s="1">
-        <v>260712618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>260720305</v>
       </c>
-      <c r="D105" s="1">
-        <v>260720305</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>260733837</v>
       </c>
-      <c r="D106" s="1">
-        <v>260733837</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>260739936</v>
       </c>
-      <c r="D107" s="1">
-        <v>260739936</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>260738808</v>
       </c>
-      <c r="D108" s="1">
-        <v>260738808</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>260741707</v>
       </c>
-      <c r="D109" s="1">
-        <v>260741707</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>260747645</v>
       </c>
-      <c r="D110" s="1">
-        <v>260747645</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B111" s="1">
         <v>260733308</v>
       </c>
-      <c r="D111" s="1">
-        <v>260733308</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>260743132</v>
       </c>
-      <c r="D112" s="1">
-        <v>260743132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>260717858</v>
       </c>
-      <c r="D113" s="1">
-        <v>260717858</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>260744131</v>
       </c>
-      <c r="D114" s="1">
-        <v>260744131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>260663600</v>
       </c>
-      <c r="D115" s="1">
-        <v>260663600</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="1">
         <v>260741736</v>
       </c>
-      <c r="D116" s="1">
-        <v>260741736</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="1">
         <v>260737213</v>
       </c>
-      <c r="D117" s="1">
-        <v>260737213</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="1">
         <v>260744535</v>
       </c>
-      <c r="D118" s="1">
-        <v>260744535</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B119" s="1">
         <v>260720023</v>
       </c>
-      <c r="D119" s="1">
-        <v>260720023</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>260705934</v>
       </c>
-      <c r="D120" s="1">
-        <v>260705934</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="1">
         <v>260665549</v>
       </c>
-      <c r="D121" s="1">
-        <v>260665549</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="1">
         <v>260740762</v>
       </c>
-      <c r="D122" s="1">
-        <v>260740762</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B123" s="1">
         <v>260332932</v>
       </c>
-      <c r="D123" s="1">
-        <v>260332932</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>260743643</v>
       </c>
-      <c r="D124" s="1">
-        <v>260743643</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B125" s="1">
         <v>260733921</v>
       </c>
-      <c r="D125" s="1">
-        <v>260733921</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>260685449</v>
       </c>
-      <c r="D126" s="1">
-        <v>260685449</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>260742835</v>
       </c>
-      <c r="D127" s="1">
-        <v>260742835</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>260706629</v>
       </c>
-      <c r="D128" s="1">
-        <v>260706629</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>260742984</v>
       </c>
-      <c r="D129" s="1">
-        <v>260742984</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>260729621</v>
       </c>
-      <c r="D130" s="1">
-        <v>260729621</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>260743650</v>
       </c>
-      <c r="D131" s="1">
-        <v>260743650</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B132" s="1">
         <v>260747324</v>
       </c>
-      <c r="D132" s="1">
-        <v>260747324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>260744729</v>
       </c>
-      <c r="D133" s="1">
-        <v>260744729</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>260742187</v>
       </c>
-      <c r="D134" s="1">
-        <v>260742187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B135" s="1">
         <v>260742188</v>
       </c>
-      <c r="D135" s="1">
-        <v>260742188</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B136" s="1">
         <v>260745612</v>
       </c>
-      <c r="D136" s="1">
-        <v>260745612</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="1">
         <v>260743167</v>
       </c>
-      <c r="D137" s="1">
-        <v>260743167</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B138" s="1">
         <v>260742996</v>
       </c>
-      <c r="D138" s="1">
-        <v>260742996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4">
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B139" s="1">
         <v>260606600</v>
       </c>
-      <c r="D139" s="1">
-        <v>260606600</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4">
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B140" s="1">
         <v>260601565</v>
       </c>
-      <c r="D140" s="1">
-        <v>260601565</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>260689446</v>
       </c>
-      <c r="D141" s="1">
-        <v>260689446</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B142" s="1">
         <v>260732931</v>
       </c>
-      <c r="D142" s="1">
-        <v>260732931</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B143" s="1">
         <v>260711605</v>
       </c>
-      <c r="D143" s="1">
-        <v>260711605</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>260717893</v>
       </c>
-      <c r="D144" s="1">
-        <v>260717893</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B145" s="1">
         <v>260740998</v>
       </c>
-      <c r="D145" s="1">
-        <v>260740998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B146" s="1">
         <v>260722217</v>
       </c>
-      <c r="D146" s="1">
-        <v>260722217</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B147" s="1">
         <v>260611858</v>
       </c>
-      <c r="D147" s="1">
-        <v>260611858</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="1">
         <v>260604186</v>
       </c>
-      <c r="D148" s="1">
-        <v>260604186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B149" s="1">
         <v>260743980</v>
       </c>
-      <c r="D149" s="1">
-        <v>260743980</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>260726999</v>
       </c>
-      <c r="D150" s="1">
-        <v>260726999</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/classlist.xlsx
+++ b/src/main/resources/classlist.xlsx
@@ -474,10 +474,10 @@
     <t xml:space="preserve">Zhang, Yin </t>
   </si>
   <si>
-    <t>Tesla, Nikola</t>
-  </si>
-  <si>
     <t>000000000</t>
+  </si>
+  <si>
+    <t>Lee, Solvie</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
